--- a/documentation/D5QuboSolver.xlsx
+++ b/documentation/D5QuboSolver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\source\repos\dann5.3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4521E61-E4FD-480B-8394-D677B226A9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58117856-4495-4F65-BD0F-30D15E39AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{5DF8901C-B98A-4765-A8FD-72B739D506A2}"/>
+    <workbookView xWindow="35820" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{5DF8901C-B98A-4765-A8FD-72B739D506A2}"/>
   </bookViews>
   <sheets>
     <sheet name="No threads" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>no nodes</t>
   </si>
@@ -76,13 +76,42 @@
   </si>
   <si>
     <t>sample</t>
+  </si>
+  <si>
+    <t>log2(noNodes) -0.1</t>
+  </si>
+  <si>
+    <t># of combinations</t>
+  </si>
+  <si>
+    <t>Starting values</t>
+  </si>
+  <si>
+    <t>0b0000</t>
+  </si>
+  <si>
+    <t>0b00000 &amp; 0b10000</t>
+  </si>
+  <si>
+    <t>0b000000000 &amp; 0b010000000 &amp; 0b100000000 &amp; 0b110000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,10 +137,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,8 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,25 +489,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4720CE30-462F-4FFC-BA7D-DB602EEC9CE6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -485,8 +519,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -499,15 +539,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D4" si="1">2^C2</f>
-        <v>2</v>
+        <f t="shared" ref="D2:D6" si="1">2^(C2-1)</f>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E4" si="2">A2-1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F6" si="3">2^A2</f>
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -516,19 +563,26 @@
         <v>2.2219280948873621</v>
       </c>
       <c r="C3">
-        <f>INT(B3)</f>
-        <v>2</v>
+        <f t="shared" ref="C3:C6" si="4">INT(B3)-1</f>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="3">2^(C3-1)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -537,19 +591,26 @@
         <v>3.0699250014423125</v>
       </c>
       <c r="C4">
-        <f>INT(B4)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -558,19 +619,23 @@
         <v>4.0699250014423125</v>
       </c>
       <c r="C5">
-        <f>INT(B5)</f>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f t="shared" ref="E5" si="5">A5-1</f>
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5" si="4">A5-1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -579,16 +644,20 @@
         <v>5.0292830169449667</v>
       </c>
       <c r="C6">
-        <f>INT(B6)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6" si="6">A6-1</f>
+        <v>34</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6" si="5">A6-1</f>
-        <v>34</v>
+        <v>34359738368</v>
       </c>
     </row>
   </sheetData>
@@ -600,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D11A40-25A0-47DA-8AD1-6BBB277D8F08}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
